--- a/GMS.Web.Admin/UploadFiles/材料模板.xlsx
+++ b/GMS.Web.Admin/UploadFiles/材料模板.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>材料名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,10 @@
   </si>
   <si>
     <t>基数必须是数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -143,7 +147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -166,6 +170,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -173,7 +186,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -182,6 +195,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -497,147 +513,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B1" s="4"/>
+      <c r="E1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
         <v>1.25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2">
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
         <v>1.3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
         <v>1.01</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
